--- a/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED9D25-3BF0-0A43-AF22-404FF1CF0AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239C339-B449-434F-A03C-7AF93535D03F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="-28080" windowWidth="10000" windowHeight="17540" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="11500" yWindow="-28040" windowWidth="20720" windowHeight="20520" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -413,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C297E7-6797-2342-9E80-1C39CEF8FE4F}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,9 +456,15 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>63945.599999999999</v>
+      </c>
+      <c r="E2">
+        <v>63967.199999999997</v>
+      </c>
       <c r="F2" t="str">
         <f>IF(D2&lt;E2,"national","subnational")</f>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -470,9 +477,15 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>42130.61</v>
+      </c>
+      <c r="E3">
+        <v>42170.51</v>
+      </c>
       <c r="F3" t="str">
         <f>IF(D3&lt;E3,"national","subnational")</f>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -485,9 +498,15 @@
       <c r="C4">
         <v>15</v>
       </c>
+      <c r="D4">
+        <v>62718.45</v>
+      </c>
+      <c r="E4">
+        <v>62743.79</v>
+      </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F21" si="0">IF(D4&lt;E4,"national","subnational")</f>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -500,9 +519,15 @@
       <c r="C5">
         <v>25</v>
       </c>
+      <c r="D5">
+        <v>80828.84</v>
+      </c>
+      <c r="E5">
+        <v>80868.639999999999</v>
+      </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -515,9 +540,15 @@
       <c r="C6">
         <v>35</v>
       </c>
+      <c r="D6">
+        <v>97189.6</v>
+      </c>
+      <c r="E6">
+        <v>97217.37</v>
+      </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -530,9 +561,15 @@
       <c r="C7">
         <v>45</v>
       </c>
+      <c r="D7">
+        <v>111180.4</v>
+      </c>
+      <c r="E7">
+        <v>111218.72</v>
+      </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,9 +582,15 @@
       <c r="C8">
         <v>55</v>
       </c>
+      <c r="D8">
+        <v>120523.83</v>
+      </c>
+      <c r="E8">
+        <v>120561.3</v>
+      </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -560,9 +603,15 @@
       <c r="C9">
         <v>65</v>
       </c>
+      <c r="D9">
+        <v>129515.48</v>
+      </c>
+      <c r="E9">
+        <v>129533.98</v>
+      </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -617,9 +666,15 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>58907.43</v>
+      </c>
+      <c r="E12">
+        <v>58941.9</v>
+      </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D12&lt;E12,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -632,9 +687,15 @@
       <c r="C13">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>39179.06</v>
+      </c>
+      <c r="E13">
+        <v>39214.089999999997</v>
+      </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D13&lt;E13,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,9 +708,15 @@
       <c r="C14">
         <v>15</v>
       </c>
+      <c r="D14">
+        <v>54606.62</v>
+      </c>
+      <c r="E14">
+        <v>54638.39</v>
+      </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D14&lt;E14,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,9 +729,15 @@
       <c r="C15">
         <v>25</v>
       </c>
+      <c r="D15">
+        <v>72384.149999999994</v>
+      </c>
+      <c r="E15">
+        <v>72403.210000000006</v>
+      </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D15&lt;E15,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -677,9 +750,15 @@
       <c r="C16">
         <v>35</v>
       </c>
+      <c r="D16">
+        <v>87411.34</v>
+      </c>
+      <c r="E16">
+        <v>87447.56</v>
+      </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D16&lt;E16,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -692,9 +771,15 @@
       <c r="C17">
         <v>45</v>
       </c>
+      <c r="D17">
+        <v>100974.23</v>
+      </c>
+      <c r="E17">
+        <v>101017.16</v>
+      </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D17&lt;E17,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -707,9 +792,15 @@
       <c r="C18">
         <v>55</v>
       </c>
+      <c r="D18">
+        <v>113458.35</v>
+      </c>
+      <c r="E18">
+        <v>113485.63</v>
+      </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D18&lt;E18,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,9 +813,15 @@
       <c r="C19">
         <v>65</v>
       </c>
+      <c r="D19">
+        <v>123525.49</v>
+      </c>
+      <c r="E19">
+        <v>123563.9</v>
+      </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>subnational</v>
+        <f>IF(D19&lt;E19,"national","subnational")</f>
+        <v>national</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
